--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_38.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3954628.728051427</v>
+        <v>3951611.137650489</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.8818051493</v>
+        <v>682213.8818051495</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>190.541935070641</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,7 +671,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>111.1296671927063</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>129.0246247964035</v>
+        <v>269.0275088281772</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,7 +911,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>95.60231281716823</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>45.24972634440854</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>216.6993815150878</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>166.300800756919</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>105.7560841608224</v>
+        <v>198.6687578885149</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>13.72101765531088</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,31 +1333,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>14.75331897369121</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1385,10 @@
         <v>411.9645167896914</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274067</v>
+        <v>81.7791350527407</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952497999</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701348</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>8.070639042239904</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>122.3137095599308</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>62.84689974024511</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>115.5269768002174</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>66.14085215535403</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2084,13 +2084,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274081</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>23.62301836564496</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2476,25 +2476,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>9.454951674318172</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>68.07013494900221</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="27">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>9.025277896132723</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,19 +2767,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985775</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>190.7955476484012</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274074</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522968</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C31" t="n">
-        <v>99.1149309689873</v>
+        <v>99.11493096898724</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857182</v>
+        <v>80.48358288857176</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692863</v>
+        <v>78.30207251692858</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329071</v>
+        <v>77.28915789329065</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373706</v>
+        <v>98.361678333737</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789334</v>
+        <v>80.78193823789553</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463144</v>
+        <v>42.28735533463139</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415225</v>
+        <v>41.83246227415219</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539627</v>
@@ -3007,16 +3007,16 @@
         <v>218.1054622689368</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941875</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069505</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593966</v>
+        <v>157.5777652593952</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224543</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="32">
@@ -3086,7 +3086,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898725</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857177</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692859</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789328882</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373702</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789555</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346314</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415187</v>
+        <v>41.83246227415221</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287487</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689361</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V34" t="n">
         <v>184.0057531941874</v>
@@ -3250,7 +3250,7 @@
         <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593966</v>
       </c>
       <c r="Y34" t="n">
         <v>150.4527632224542</v>
@@ -3317,10 +3317,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692825</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T37" t="n">
         <v>153.4156709287486</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789515</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463105</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3791,7 +3791,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415164</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T43" t="n">
         <v>153.4156709287486</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896913</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274063</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465691</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836031</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583891</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>143.8155679990664</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.1376433238279</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>163.3855388872491</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1461.147548391485</v>
+        <v>962.9693282917581</v>
       </c>
       <c r="C2" t="n">
-        <v>1461.147548391485</v>
+        <v>962.9693282917581</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>962.9693282917581</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>577.1810756935138</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>166.1951709039062</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4328,7 +4328,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.752638628377</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>2224.752638628377</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X2" t="n">
-        <v>1851.286880367297</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y2" t="n">
-        <v>1461.147548391485</v>
+        <v>1349.56916835588</v>
       </c>
     </row>
     <row r="3">
@@ -4416,7 +4416,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4519,19 +4519,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>184.2708856551155</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2092.477155601806</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C5" t="n">
-        <v>1723.514638661394</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D5" t="n">
-        <v>1365.248940054644</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>979.4606874563995</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>568.474782666792</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>150.5109745649788</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2596.413607261435</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2596.413607261435</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2342.651821899526</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2011.588934555955</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>1658.820279285841</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.477155601806</v>
+        <v>1658.820279285841</v>
       </c>
       <c r="Y5" t="n">
-        <v>2092.477155601806</v>
+        <v>1268.68094731003</v>
       </c>
     </row>
     <row r="6">
@@ -4620,31 +4620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
         <v>309.190302261463</v>
@@ -4656,31 +4656,31 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>530.7314582348854</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>530.7314582348854</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>530.7314582348854</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>382.8183646524922</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>530.7314582348854</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y7" t="n">
-        <v>530.7314582348854</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1469.273141255051</v>
+        <v>1409.658350833669</v>
       </c>
       <c r="C8" t="n">
-        <v>1469.273141255051</v>
+        <v>1409.658350833669</v>
       </c>
       <c r="D8" t="n">
-        <v>1111.007442648301</v>
+        <v>1051.392652226918</v>
       </c>
       <c r="E8" t="n">
-        <v>725.2191900500566</v>
+        <v>665.6043996286739</v>
       </c>
       <c r="F8" t="n">
-        <v>314.233285260449</v>
+        <v>254.6184948390664</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2212.181128500977</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>1859.412473230863</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X8" t="n">
-        <v>1859.412473230863</v>
+        <v>1796.25819089779</v>
       </c>
       <c r="Y8" t="n">
-        <v>1469.273141255051</v>
+        <v>1796.25819089779</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>217.9192350259435</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>535.6630640965725</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>535.6630640965725</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694736</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="X10" t="n">
-        <v>438.7118141694736</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="Y10" t="n">
-        <v>217.9192350259435</v>
+        <v>246.4894537511405</v>
       </c>
     </row>
     <row r="11">
@@ -5018,34 +5018,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5060,16 +5060,16 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.3578574653</v>
@@ -5078,10 +5078,10 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277031</v>
+        <v>570.0299571250974</v>
       </c>
       <c r="L12" t="n">
-        <v>901.6749225845916</v>
+        <v>816.7950850315615</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864553</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N12" t="n">
-        <v>1538.857683528586</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O12" t="n">
-        <v>2208.321444831245</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>216.9038434870655</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>216.9038434870655</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.78763177146</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655735</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>665.685973528613</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>437.6964226305956</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>216.9038434870655</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,49 +5261,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823808</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514103</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5331,16 +5331,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
         <v>358.2718071316295</v>
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277032</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>901.6749225845917</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864553</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N15" t="n">
-        <v>2013.406634128704</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O15" t="n">
-        <v>2292.946699347401</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5391,7 +5391,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W15" t="n">
         <v>1571.258395043133</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>542.1367719529251</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="C16" t="n">
-        <v>542.1367719529251</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5464,22 +5464,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1375.367068982215</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1086.238430195773</v>
+        <v>1211.64913843807</v>
       </c>
       <c r="V16" t="n">
-        <v>831.5539419898857</v>
+        <v>1211.64913843807</v>
       </c>
       <c r="W16" t="n">
-        <v>542.1367719529251</v>
+        <v>1211.64913843807</v>
       </c>
       <c r="X16" t="n">
-        <v>542.1367719529251</v>
+        <v>983.6595875400524</v>
       </c>
       <c r="Y16" t="n">
-        <v>542.1367719529251</v>
+        <v>762.8670083965222</v>
       </c>
     </row>
     <row r="17">
@@ -5501,49 +5501,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
         <v>4262.3578574653</v>
@@ -5592,28 +5592,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277031</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>901.6749225845916</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.043068977053</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1999.905696641085</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2279.445761859782</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2484.468242641991</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>213.9110074201014</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C19" t="n">
-        <v>213.9110074201014</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D19" t="n">
-        <v>213.9110074201014</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5674,19 +5674,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5701,22 +5701,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609662</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550793</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="W19" t="n">
-        <v>441.9005583181187</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="X19" t="n">
-        <v>213.9110074201014</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.9110074201014</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
     <row r="20">
@@ -5726,55 +5726,55 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5783,19 +5783,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5826,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5847,10 +5847,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2358.217138262064</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3756.161980826921</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C22" t="n">
-        <v>3756.161980826921</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D22" t="n">
-        <v>3606.045341414585</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E22" t="n">
-        <v>3606.045341414585</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916675</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916675</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>4437.14914771935</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>4413.287513006578</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>4158.603024800691</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>4158.603024800691</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>4158.603024800691</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y22" t="n">
-        <v>3937.81044565716</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,10 +5987,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,34 +5999,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M24" t="n">
-        <v>1595.645765494011</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N24" t="n">
-        <v>1925.508393158044</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O24" t="n">
-        <v>2205.048458376741</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1029.666285013068</v>
+        <v>534.3905543375959</v>
       </c>
       <c r="C25" t="n">
-        <v>860.7301020851612</v>
+        <v>534.3905543375959</v>
       </c>
       <c r="D25" t="n">
-        <v>710.6134626728254</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E25" t="n">
-        <v>562.7003690904323</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1319.083455050029</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1319.083455050029</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>1319.083455050029</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V25" t="n">
-        <v>1319.083455050029</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W25" t="n">
-        <v>1029.666285013068</v>
+        <v>755.183133481126</v>
       </c>
       <c r="X25" t="n">
-        <v>1029.666285013068</v>
+        <v>755.183133481126</v>
       </c>
       <c r="Y25" t="n">
-        <v>1029.666285013068</v>
+        <v>534.3905543375959</v>
       </c>
     </row>
     <row r="26">
@@ -6203,22 +6203,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6251,22 +6251,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614725</v>
@@ -6321,10 +6321,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>684.3745488722935</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>684.3745488722935</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>684.3745488722935</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>536.4614552899004</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="U28" t="n">
-        <v>1387.841167119728</v>
+        <v>1209.787631771459</v>
       </c>
       <c r="V28" t="n">
-        <v>1133.156678913841</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W28" t="n">
-        <v>1133.156678913841</v>
+        <v>727.6476863320734</v>
       </c>
       <c r="X28" t="n">
-        <v>905.1671280158237</v>
+        <v>499.6581354340559</v>
       </c>
       <c r="Y28" t="n">
-        <v>684.3745488722935</v>
+        <v>278.8655562905257</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6546,19 +6546,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108317</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229657</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D31" t="n">
-        <v>478.047598850671</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083188</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504494</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103109</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982974</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6643,13 +6643,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U31" t="n">
         <v>1489.892037025262</v>
@@ -6661,10 +6661,10 @@
         <v>1083.430560862496</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045196</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010304</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,19 +6683,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823794</v>
@@ -6722,28 +6722,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6783,16 +6783,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108317</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229658</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506711</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.954596308319</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,28 +6880,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045196</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010304</v>
       </c>
     </row>
     <row r="35">
@@ -6932,16 +6932,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6950,19 +6950,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>485.5200852635876</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>1099.417155020476</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M36" t="n">
-        <v>1406.737288300438</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>1736.599915964471</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3481.79397174047</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>3381.677879852604</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>3300.38133148031</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>3221.288328937958</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>3143.218472480089</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>3043.86324183995</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>2962.265324427935</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>2919.550824089923</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>2999.384087782177</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>3217.020063255133</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>3532.182679494606</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
-        <v>3871.199993490133</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>4209.194673746025</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>4510.520222979766</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>4754.570558813793</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>4818.59956061616</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>4687.499641571753</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>4532.534317401301</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>4312.2257696549</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>4126.361372489054</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>3905.764293492134</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>3746.594833634158</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>3594.622345530669</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7154,55 +7154,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7239,37 +7239,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7324,13 +7324,13 @@
         <v>221.5295092103126</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.931591798297</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254957</v>
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805463</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7424,37 +7424,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766202</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M42" t="n">
-        <v>1564.731711769082</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N42" t="n">
-        <v>1894.594339433115</v>
+        <v>1771.104817265285</v>
       </c>
       <c r="O42" t="n">
-        <v>2174.134404651812</v>
+        <v>2050.644882483982</v>
       </c>
       <c r="P42" t="n">
-        <v>2379.156885434021</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103129</v>
@@ -7564,16 +7564,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7594,7 +7594,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
@@ -7612,7 +7612,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7625,22 +7625,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7673,7 +7673,7 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141867</v>
@@ -7682,13 +7682,13 @@
         <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7737,16 +7737,16 @@
         <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>675.2581065529671</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C46" t="n">
-        <v>675.2581065529671</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D46" t="n">
-        <v>675.2581065529671</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E46" t="n">
-        <v>527.3450129705741</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705741</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903948</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383382</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7822,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473456</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>929.9425947588538</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>675.2581065529671</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W46" t="n">
-        <v>675.2581065529671</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X46" t="n">
-        <v>675.2581065529671</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y46" t="n">
-        <v>675.2581065529671</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
   </sheetData>
@@ -8064,10 +8064,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>159.0121003135246</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>124.3400780863242</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.096615172076</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9009,25 +9009,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>28.12263706263116</v>
+        <v>285.1031356539336</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298392</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,16 +9240,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q18" t="n">
-        <v>52.49733361305414</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445221</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q21" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9729,13 +9729,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>308.1251096272032</v>
       </c>
       <c r="P24" t="n">
-        <v>127.646125010065</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10431,7 +10431,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>73.64859338270662</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504494</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>124.3400780863226</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627462</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>73.53204524670008</v>
       </c>
       <c r="Q42" t="n">
-        <v>158.8724419039329</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11385,19 +11385,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>140.5448339759724</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23704,22 +23704,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>99.23385149845846</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>223.3904526583322</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>30.90698584635179</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23941,22 +23941,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>155.4067089030352</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>33.38685156731854</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,25 +24175,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>262.6143340329324</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>139.1605213438942</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>129.850675034601</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>136.3957701267985</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633777</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675363</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24646,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836034</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583894</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>61.34209567542698</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>2.245315045001917e-12</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26020,19 +26020,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26068,28 +26068,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>142.4217843995108</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.5229983365909</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520947</v>
+        <v>55.19911446484571</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>639904.3715111976</v>
+        <v>639904.3715111975</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>639904.3715111975</v>
+        <v>639904.3715111976</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>639904.3715111975</v>
+        <v>639904.3715111976</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>639904.3715111976</v>
+        <v>639904.3715111974</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>671091.29182229</v>
+        <v>671091.2918222902</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>639904.3715111975</v>
+        <v>639904.3715111976</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710686</v>
       </c>
       <c r="D2" t="n">
         <v>779989.6813710688</v>
       </c>
       <c r="E2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="F2" t="n">
+        <v>742955.2135016468</v>
+      </c>
+      <c r="G2" t="n">
         <v>742955.213501647</v>
       </c>
-      <c r="F2" t="n">
-        <v>742955.2135016473</v>
-      </c>
-      <c r="G2" t="n">
-        <v>742955.2135016472</v>
-      </c>
       <c r="H2" t="n">
+        <v>742955.2135016469</v>
+      </c>
+      <c r="I2" t="n">
         <v>742955.213501647</v>
-      </c>
-      <c r="I2" t="n">
-        <v>742955.2135016473</v>
       </c>
       <c r="J2" t="n">
         <v>742955.213501647</v>
       </c>
       <c r="K2" t="n">
+        <v>779989.6813710692</v>
+      </c>
+      <c r="L2" t="n">
         <v>779989.6813710694</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>779989.6813710693</v>
+      </c>
+      <c r="N2" t="n">
         <v>779989.6813710696</v>
       </c>
-      <c r="M2" t="n">
-        <v>779989.6813710695</v>
-      </c>
-      <c r="N2" t="n">
-        <v>779989.6813710694</v>
-      </c>
       <c r="O2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.6813710696</v>
       </c>
       <c r="P2" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016469</v>
       </c>
     </row>
     <row r="3">
@@ -26372,16 +26372,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
-        <v>7.832581364449913e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.611524223539163e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371243</v>
+        <v>54505.51210371252</v>
       </c>
       <c r="L3" t="n">
-        <v>7.958078640513122e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>14711.50065430954</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="F4" t="n">
-        <v>14711.5006543095</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>14711.50065430955</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143905</v>
       </c>
       <c r="I4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>14711.50065430951</v>
+        <v>15045.66962143905</v>
       </c>
       <c r="K4" t="n">
-        <v>37130.28789562993</v>
+        <v>37464.45686275956</v>
       </c>
       <c r="L4" t="n">
-        <v>37130.28789562997</v>
+        <v>37464.45686275955</v>
       </c>
       <c r="M4" t="n">
-        <v>37130.28789562992</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="N4" t="n">
-        <v>37130.28789563001</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="O4" t="n">
-        <v>37130.28789562996</v>
+        <v>37464.45686275954</v>
       </c>
       <c r="P4" t="n">
-        <v>14711.5006543096</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26470,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26494,16 +26494,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-49197.01964864042</v>
+        <v>-49612.23415810778</v>
       </c>
       <c r="C6" t="n">
-        <v>540770.8595659041</v>
+        <v>540355.6450564365</v>
       </c>
       <c r="D6" t="n">
-        <v>540770.859565904</v>
+        <v>540355.6450564369</v>
       </c>
       <c r="E6" t="n">
-        <v>111096.350421725</v>
+        <v>110762.1814545954</v>
       </c>
       <c r="F6" t="n">
-        <v>636256.3868986211</v>
+        <v>635922.2179314911</v>
       </c>
       <c r="G6" t="n">
-        <v>636256.3868986211</v>
+        <v>635922.2179314913</v>
       </c>
       <c r="H6" t="n">
-        <v>636256.3868986206</v>
+        <v>635922.2179314912</v>
       </c>
       <c r="I6" t="n">
-        <v>636256.3868986212</v>
+        <v>635922.2179314913</v>
       </c>
       <c r="J6" t="n">
-        <v>459833.1677060279</v>
+        <v>459498.9987388984</v>
       </c>
       <c r="K6" t="n">
-        <v>590638.7755517017</v>
+        <v>590304.6065845718</v>
       </c>
       <c r="L6" t="n">
-        <v>645144.2876554141</v>
+        <v>644810.1186882844</v>
       </c>
       <c r="M6" t="n">
-        <v>510343.2724215771</v>
+        <v>510009.1034544473</v>
       </c>
       <c r="N6" t="n">
-        <v>645144.2876554141</v>
+        <v>644810.1186882847</v>
       </c>
       <c r="O6" t="n">
-        <v>645144.2876554137</v>
+        <v>644810.1186882847</v>
       </c>
       <c r="P6" t="n">
-        <v>636256.3868986208</v>
+        <v>635922.2179314912</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964054</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>1.049416963584148e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26738,19 +26738,19 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964054</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L2" t="n">
-        <v>9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964054</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>164.141106550042</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>302.6545028280887</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27591,19 +27591,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>157.4983735401875</v>
+        <v>17.49548950841381</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27616,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>228.3204599471889</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>129.165986464563</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,10 +27780,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>69.58249272688991</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>59.40885463211811</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>308.0280858599725</v>
+        <v>215.1154121322801</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>153.525803443317</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>197.3922199763277</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.041424928414132e-12</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -29284,16 +29284,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.435009465522691e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964054</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964054</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964054</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964054</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964054</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964054</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964054</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964054</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964054</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964054</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964054</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964054</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964054</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964054</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964054</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964054</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964054</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964054</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964054</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964054</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964054</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964054</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964054</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964054</v>
+        <v>68.1318901296406</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964058</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.049416963584148e-13</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>1.049416963584148e-13</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>1.049416963584148e-13</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1.049416963584148e-13</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1.049416963584148e-13</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.049416963584148e-13</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1.049416963584148e-13</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.049416963584148e-13</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>1.049416963584148e-13</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>1.049416963584148e-13</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>1.049416963584148e-13</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>1.049416963584148e-13</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>1.049416963584148e-13</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>1.049416963584148e-13</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.049416963584148e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.049416963584148e-13</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1.049416963584148e-13</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>1.049416963584148e-13</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>1.049416963584148e-13</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>1.049416963584148e-13</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.049416963584148e-13</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>1.049416963584148e-13</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.049416963584148e-13</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1.049416963584148e-13</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>1.049416963584148e-13</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>1.049416963584148e-13</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>1.049416963584148e-13</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>1.049416963584148e-13</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>1.049416963584148e-13</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>1.049416963584148e-13</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.049416963584148e-13</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>1.049416963584148e-13</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>1.049416963584148e-13</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>1.049416963584148e-13</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>1.049416963584148e-13</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>1.049416963584148e-13</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>1.049416963584148e-13</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>1.049416963584148e-13</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.049416963584148e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31753,46 +31753,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,43 +31832,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,43 +31914,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,46 +31990,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,43 +32069,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,43 +32151,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,43 +32388,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34784,10 +34784,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879391</v>
+        <v>309.5875389014639</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594833</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>331.4334930178488</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507405</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.37802194151</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879391</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594833</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415662</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.363702241108</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>235.2160519941557</v>
+        <v>492.1965505854582</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507405</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686861</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081116</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879391</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594833</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315245</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q18" t="n">
-        <v>140.5103663981282</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q21" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>620.0980502594834</v>
@@ -36449,13 +36449,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>590.4888118683114</v>
       </c>
       <c r="P24" t="n">
-        <v>334.7395399415897</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655654</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299104</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118006</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187463</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36914,7 +36914,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>429.2814066296115</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36926,10 +36926,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520607</v>
+        <v>80.63966029520613</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595511</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M31" t="n">
-        <v>342.441731308613</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N31" t="n">
         <v>341.4087679352442</v>
@@ -37005,10 +37005,10 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414413</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015153</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
@@ -37163,7 +37163,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520611</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414413</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015153</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,10 +37385,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>224.2240319706459</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>483.6693559063409</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
@@ -37403,7 +37403,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37546,7 +37546,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109062</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221117</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>457.5346514843356</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37792,7 +37792,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095148</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>280.6254601782248</v>
       </c>
       <c r="Q42" t="n">
-        <v>246.8854746890071</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38023,7 +38023,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38105,19 +38105,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>621.6037559756878</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556563</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187486</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4026709.92306262</v>
+        <v>4019692.908170909</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>142.6621898072149</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -676,10 +676,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>83.85112090809152</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -819,22 +819,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>83.59830597394803</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,19 +901,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>230.7427785993218</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>60.46179076613048</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>229.5889480231532</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>126.0887386816666</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>78.10065894224137</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>261.3361460743441</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>49.58595117973795</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>59.72683757586842</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274127</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952497999</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>39.1156143681576</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>145.8998232290789</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>97.12772045570674</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>80.72499518541045</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -2058,7 +2058,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>210.9685212521341</v>
       </c>
       <c r="Y19" t="n">
-        <v>143.3158222056515</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274067</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,22 +2241,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>149.0799667719507</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>22.42123215846246</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>34.22759348994921</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>57.97948033333861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
-        <v>220.2131102961575</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3037,19 +3037,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896924</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274066</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>202.5457551949527</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>72.14107628195107</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722634</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,16 +3663,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>45.90234712787204</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>45.72523033531994</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>54.6863244596417</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546.109828622464</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="C2" t="n">
-        <v>546.109828622464</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="D2" t="n">
-        <v>546.109828622464</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="E2" t="n">
-        <v>402.0066065949742</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>152.5644878091387</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>138.6410837477296</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>138.6410837477296</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,16 +4409,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1408.083041312479</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C5" t="n">
-        <v>1039.120524372067</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D5" t="n">
-        <v>1039.120524372067</v>
+        <v>74.81188663097701</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>74.81188663097701</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V5" t="n">
-        <v>2147.451536646714</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W5" t="n">
-        <v>1794.6828813766</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X5" t="n">
-        <v>1794.6828813766</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y5" t="n">
-        <v>1794.6828813766</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4664,25 +4664,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245972</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245972</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245972</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>181.3053441250782</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1284.970060705656</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C8" t="n">
-        <v>916.007543765244</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D8" t="n">
-        <v>557.7418451584936</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304456</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.575150942547</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="W8" t="n">
-        <v>2048.575150942547</v>
+        <v>2013.317548404537</v>
       </c>
       <c r="X8" t="n">
-        <v>1675.109392681467</v>
+        <v>2013.317548404537</v>
       </c>
       <c r="Y8" t="n">
-        <v>1284.970060705656</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4895,7 +4895,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>359.2080756496231</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2718927217162</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>409.2948950230958</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>409.2948950230958</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>409.2948950230958</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5023,28 +5023,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805475</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822468</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5053,31 +5053,31 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147079</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L12" t="n">
-        <v>745.6707680030245</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395486</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2302.237516093322</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2507.259996875531</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909233</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U13" t="n">
-        <v>874.9271131227915</v>
+        <v>816.762183007535</v>
       </c>
       <c r="V13" t="n">
-        <v>874.9271131227915</v>
+        <v>816.762183007535</v>
       </c>
       <c r="W13" t="n">
-        <v>585.5099430858309</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X13" t="n">
-        <v>357.5203921878135</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y13" t="n">
-        <v>136.7278130442834</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="14">
@@ -5263,10 +5263,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155894</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5275,37 +5275,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5345,25 +5345,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
         <v>1247.466478653857</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028583</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028583</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1089.812348494162</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>800.6837097077201</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V16" t="n">
-        <v>545.9992215018333</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>1193.590456170226</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>965.6009052722087</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028583</v>
+        <v>744.8083261286786</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5503,25 +5503,25 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5539,28 +5539,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>2911.709630095316</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>3158.47475800178</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>3465.794891281741</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>3795.657518945774</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>4242.791036724022</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>4763.091658459769</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5706,19 +5706,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X19" t="n">
-        <v>241.9805482336712</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155903</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822461</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,40 +5819,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1833.271529962217</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>711.3743239205529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5919,7 +5919,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1348.33044553573</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U22" t="n">
-        <v>1476.268561306931</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V22" t="n">
-        <v>1221.584073101044</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>932.166903064083</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>932.166903064083</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>711.3743239205529</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6004,37 +6004,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,40 +6056,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341675</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1912.313820009359</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2432.614441745106</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.9563154684962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6156,7 +6156,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1264.422933715931</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>1264.422933715931</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>1009.738445510044</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>1009.738445510044</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>781.7488946120263</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>560.9563154684962</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6214,31 +6214,31 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6250,10 +6250,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6302,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1333.825180851558</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4076.539318291368</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>3907.603135363461</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>3757.486495951126</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4860.854573014292</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>4860.854573014292</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>4606.170084808406</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>4316.752914771445</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>4316.752914771445</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>4258.187783121608</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6484,7 +6484,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6542,7 +6542,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
         <v>287.7778528277033</v>
@@ -6551,19 +6551,19 @@
         <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.043068977053</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N30" t="n">
-        <v>2041.248044820708</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O30" t="n">
-        <v>2320.788110039405</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1165.403681972094</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>876.2750431856521</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>876.2750431856521</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>586.8578731486914</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
@@ -6688,64 +6688,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155897</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>983.329485121187</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>983.329485121187</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>983.329485121187</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>693.9123150842264</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>465.9227641862091</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690735</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409608</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748357</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742901</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769786</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373971</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805659</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250805</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2649.889045452865</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>2896.654173359329</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>3203.97430663929</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>4008.385884903441</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>4287.925950122139</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>4773.721670557071</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098069</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021847</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641234</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409491</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475757</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710803</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4279.002365959438</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>4110.066183031531</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>4110.066183031531</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3962.153089449138</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3889.283315426965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4749.779469576119</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U37" t="n">
-        <v>4460.650830789677</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>4460.650830789677</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>4460.650830789677</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>4460.650830789677</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>4460.650830789677</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1736.59991596447</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>588.5027791527958</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>392.0201325405894</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1098.712528333287</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>1098.712528333287</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>809.295358296326</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>809.295358296326</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>588.5027791527958</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7402,22 +7402,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7429,7 +7429,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2786.879505108311</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>3033.644633014775</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>3340.964766294737</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>3670.82739395877</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>4034.81452186553</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>4555.115143601278</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4251.296547201589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>4082.360364273682</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>4036.173262924874</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>4036.173262924874</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>4660.934562929845</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>4660.934562929845</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>4660.934562929845</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>4660.934562929845</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>4432.945012031828</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>4432.945012031828</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7651,22 +7651,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7733,16 +7733,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>901.674922584592</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.043068977053</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N45" t="n">
-        <v>1999.905696641086</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O45" t="n">
-        <v>2279.445761859783</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
         <v>2536.440602918915</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>413.0432218861031</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1098.712528333286</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>1098.712528333286</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>1043.47381675789</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>815.4842658598729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>594.6916867163428</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>87.16935584025526</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>29.47535963978136</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>169.2863157167176</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,16 +9479,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>32.92248665775543</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q24" t="n">
-        <v>104.8749102765741</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,28 +9956,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>73.64859338270696</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10202,10 +10202,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>41.75994765618401</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,16 +10427,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>308.1251096272028</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10676,19 +10676,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>283.6093329825482</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10913,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>180.0237016735864</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>85.30006332127624</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11390,10 +11390,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>52.497333613053</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>140.7163658137797</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>140.3375291694984</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>124.4198406026825</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>205.7980031511806</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>14.74113413690304</v>
       </c>
       <c r="Y19" t="n">
-        <v>75.26883114644332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,22 +24129,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,22 +24177,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>48.84084321165253</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>263.8161202401149</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24414,19 +24414,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>187.31996756844</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,7 +24618,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>160.6051730187562</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
-        <v>1.334450762231711</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>19.00180586343652</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>73.27997174098017</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,16 +25551,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>121.3444739707558</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>102.8902426828924</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,16 +25839,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>231.8366738769493</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>639904.3715111976</v>
+        <v>639904.3715111975</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>639904.3715111976</v>
+        <v>639904.3715111975</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>639904.3715111974</v>
+        <v>639904.3715111975</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>639904.3715111974</v>
+        <v>639904.3715111975</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>639904.3715111976</v>
+        <v>639904.3715111975</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>639904.3715111976</v>
+        <v>639904.3715111975</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>639904.3715111976</v>
+        <v>639904.3715111975</v>
       </c>
     </row>
     <row r="15">
@@ -26316,46 +26316,46 @@
         <v>779989.6813710689</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
-        <v>742955.2135016469</v>
+        <v>742955.213501647</v>
       </c>
       <c r="F2" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.213501647</v>
       </c>
       <c r="G2" t="n">
         <v>742955.2135016472</v>
       </c>
       <c r="H2" t="n">
-        <v>742955.2135016468</v>
+        <v>742955.213501647</v>
       </c>
       <c r="I2" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.213501647</v>
       </c>
       <c r="J2" t="n">
         <v>742955.2135016471</v>
       </c>
       <c r="K2" t="n">
+        <v>742955.213501647</v>
+      </c>
+      <c r="L2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="M2" t="n">
         <v>742955.2135016471</v>
       </c>
-      <c r="L2" t="n">
-        <v>742955.2135016473</v>
-      </c>
-      <c r="M2" t="n">
-        <v>742955.2135016473</v>
-      </c>
       <c r="N2" t="n">
-        <v>742955.2135016475</v>
+        <v>742955.2135016472</v>
       </c>
       <c r="O2" t="n">
         <v>742955.2135016472</v>
       </c>
       <c r="P2" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016473</v>
       </c>
     </row>
     <row r="3">
@@ -26374,31 +26374,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
-        <v>1.167613670706767e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>6.002665031701325e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512226</v>
+        <v>156774.9582512227</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143916</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
@@ -26435,7 +26435,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143915</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
@@ -26447,16 +26447,16 @@
         <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.66962143907</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.66962143902</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.66962143902</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
         <v>15045.6696214391</v>
@@ -26475,13 +26475,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26493,22 +26493,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26524,46 +26524,46 @@
         <v>-49612.23415810757</v>
       </c>
       <c r="C6" t="n">
-        <v>540355.6450564369</v>
+        <v>540355.6450564368</v>
       </c>
       <c r="D6" t="n">
         <v>540355.6450564369</v>
       </c>
       <c r="E6" t="n">
-        <v>110762.1814545953</v>
+        <v>109787.5901948731</v>
       </c>
       <c r="F6" t="n">
-        <v>635922.2179314913</v>
+        <v>634947.6266717699</v>
       </c>
       <c r="G6" t="n">
-        <v>635922.2179314916</v>
+        <v>634947.6266717699</v>
       </c>
       <c r="H6" t="n">
-        <v>635922.2179314909</v>
+        <v>634947.6266717697</v>
       </c>
       <c r="I6" t="n">
-        <v>635922.2179314914</v>
+        <v>634947.6266717697</v>
       </c>
       <c r="J6" t="n">
-        <v>459498.9987388987</v>
+        <v>458524.4074791768</v>
       </c>
       <c r="K6" t="n">
-        <v>635922.2179314914</v>
+        <v>634947.6266717697</v>
       </c>
       <c r="L6" t="n">
-        <v>635922.2179314916</v>
+        <v>634947.6266717699</v>
       </c>
       <c r="M6" t="n">
-        <v>501121.2026976545</v>
+        <v>500146.6114379325</v>
       </c>
       <c r="N6" t="n">
-        <v>635922.2179314918</v>
+        <v>634947.6266717699</v>
       </c>
       <c r="O6" t="n">
-        <v>635922.2179314916</v>
+        <v>634947.6266717699</v>
       </c>
       <c r="P6" t="n">
-        <v>635922.2179314914</v>
+        <v>634947.62667177</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26703,19 +26703,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26740,43 +26740,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="N3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="O3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26822,10 +26822,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>239.2681802650469</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>68.08019533676973</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27539,22 +27539,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>96.44405126592675</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27584,13 +27584,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>202.924692362643</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27621,19 +27621,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>151.18759147294</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>113.9539220428411</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>56.93405031343784</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>92.49591467042818</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>303.8297111300204</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>124.9017925817095</v>
       </c>
     </row>
     <row r="9">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>130.2460290021994</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29757,7 +29757,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29769,7 +29769,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29817,7 +29817,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>7.87062722688111e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34777,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879391</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>336.4270607962794</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>282.363702241108</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315245</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209231</v>
+        <v>117.4883924248555</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35734,19 +35734,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>451.6500179578258</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
         <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>343.3468637082218</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36217,13 +36217,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q24" t="n">
-        <v>192.8879430616483</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>406.8431667807198</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
         <v>150.5754385879392</v>
@@ -36919,22 +36919,22 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>374.9545210541968</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>618.5494866776692</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37165,7 +37165,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>490.702747914073</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>513.2182750715994</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>367.6637655623845</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M45" t="n">
         <v>776.1294408004661</v>
@@ -38110,10 +38110,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>259.5907485445777</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>88.0130327850741</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4019692.908170909</v>
+        <v>4024632.171019941</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>314.6536463267108</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>83.85112090809152</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>59.7268375758684</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,10 +904,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>60.46179076613048</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>184.3329086969827</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>30.60408762095441</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>126.0887386816666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>151.5236087740388</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>261.3361460743441</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,10 +1302,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>59.72683757586842</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>25.31590541686241</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274127</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>145.8998232290789</v>
+        <v>87.77311891075307</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>80.72499518541045</v>
+        <v>282.0889553650307</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>237.3965091869246</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>210.9685212521341</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2140,7 +2140,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>149.0799667719507</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2298,16 +2298,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2611,7 +2611,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>5.562624396424889</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>146.278729911946</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3796,7 +3796,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>127.4321567831319</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -3954,10 +3954,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159.5099885583422</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="C2" t="n">
-        <v>159.5099885583422</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="D2" t="n">
-        <v>159.5099885583422</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E2" t="n">
-        <v>159.5099885583422</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>152.5644878091387</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>138.6410837477296</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>138.6410837477296</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4415,10 +4415,10 @@
         <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785273</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>409.0761618661916</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>261.1630682837985</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>114.2731207858881</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>114.2731207858881</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>802.0401021781393</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>433.0775852377275</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>74.81188663097701</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097701</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177354</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2636.076575092838</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2636.076575092838</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2636.076575092838</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>2305.013687749267</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W5" t="n">
-        <v>1952.245032479153</v>
+        <v>2168.202948062279</v>
       </c>
       <c r="X5" t="n">
-        <v>1578.779274218073</v>
+        <v>1982.008090792599</v>
       </c>
       <c r="Y5" t="n">
-        <v>1188.639942242261</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036444</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036444</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>409.2948950230955</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>181.3053441250782</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036444</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1749.341643278937</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="C8" t="n">
-        <v>1749.341643278937</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2312.888763586079</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2312.888763586079</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674651</v>
+        <v>1981.825876242509</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404537</v>
+        <v>1629.057220972395</v>
       </c>
       <c r="X8" t="n">
-        <v>2013.317548404537</v>
+        <v>1255.591462711315</v>
       </c>
       <c r="Y8" t="n">
-        <v>1749.341643278937</v>
+        <v>865.4521307355029</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4895,7 +4895,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785273</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661916</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837985</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858881</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,67 +5026,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805475</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822468</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5108,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277035</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341677</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N12" t="n">
-        <v>1632.773754790662</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>2302.237516093322</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2507.259996875531</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>527.3450129705744</v>
+        <v>414.0663679705858</v>
       </c>
       <c r="C13" t="n">
-        <v>527.3450129705744</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="D13" t="n">
-        <v>527.3450129705744</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.921157035281</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247865</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>816.762183007535</v>
+        <v>1299.18145104826</v>
       </c>
       <c r="V13" t="n">
-        <v>816.762183007535</v>
+        <v>1044.496962842373</v>
       </c>
       <c r="W13" t="n">
-        <v>527.3450129705744</v>
+        <v>1044.496962842373</v>
       </c>
       <c r="X13" t="n">
-        <v>527.3450129705744</v>
+        <v>816.5074119443557</v>
       </c>
       <c r="Y13" t="n">
-        <v>527.3450129705744</v>
+        <v>595.7148328008255</v>
       </c>
     </row>
     <row r="14">
@@ -5278,10 +5278,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,13 +5290,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5357,13 +5357,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
         <v>1247.466478653857</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>563.1598612984388</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C16" t="n">
-        <v>394.223678370532</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581962</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>1275.130855347408</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V16" t="n">
-        <v>1275.130855347408</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W16" t="n">
-        <v>1193.590456170226</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="X16" t="n">
-        <v>965.6009052722087</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y16" t="n">
-        <v>744.8083261286786</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>709.4934589365146</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5700,7 +5700,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
         <v>1075.21084526296</v>
@@ -5709,16 +5709,16 @@
         <v>1075.21084526296</v>
       </c>
       <c r="V19" t="n">
-        <v>820.5263570570736</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>531.109187020113</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
         <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5731,67 +5731,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155903</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5828,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1348.33044553573</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1124.545030325236</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>835.416391538794</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5986,31 +5986,31 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6192,7 +6192,7 @@
         <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
@@ -6214,40 +6214,40 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823783</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014293</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6411,22 +6411,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
         <v>97.21709146028587</v>
@@ -6463,10 +6463,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,7 +6481,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.627437207829</v>
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.043068977054</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1999.905696641086</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6645,7 +6645,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
         <v>1382.222354598086</v>
@@ -6691,10 +6691,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6703,7 +6703,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,10 +6718,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6782,19 +6782,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6897,7 +6897,7 @@
         <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
         <v>97.21709146028584</v>
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,40 +6925,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7122,22 +7122,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1379.229518531123</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1090.100879744681</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>835.416391538794</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
         <v>97.21709146028584</v>
@@ -7156,37 +7156,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7362,19 +7362,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336712</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
         <v>97.21709146028584</v>
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,25 +7396,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7432,7 +7432,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>674.7185717878251</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>446.7290208898078</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>225.9364417462777</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7633,25 +7633,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7669,7 +7669,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8057,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627882</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360588</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>180.0237016735875</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>29.47535963978136</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.700368322958</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,25 +9248,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>176.7176547498458</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>140.3375291694984</v>
+        <v>198.4642334878243</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>205.7980031511806</v>
+        <v>4.434042971560302</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23949,13 +23949,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>14.74113413690341</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>14.74113413690304</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>48.84084321165253</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>75.26883114644326</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>52.3998233988054</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>639904.3715111975</v>
+        <v>639904.3715111974</v>
       </c>
     </row>
     <row r="7">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="C2" t="n">
+        <v>779989.681371069</v>
+      </c>
+      <c r="D2" t="n">
         <v>779989.6813710688</v>
       </c>
-      <c r="D2" t="n">
-        <v>779989.681371069</v>
-      </c>
       <c r="E2" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016473</v>
       </c>
       <c r="F2" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016472</v>
       </c>
       <c r="G2" t="n">
         <v>742955.2135016472</v>
       </c>
       <c r="H2" t="n">
+        <v>742955.2135016473</v>
+      </c>
+      <c r="I2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="J2" t="n">
+        <v>742955.2135016469</v>
+      </c>
+      <c r="K2" t="n">
+        <v>742955.2135016471</v>
+      </c>
+      <c r="L2" t="n">
+        <v>742955.2135016475</v>
+      </c>
+      <c r="M2" t="n">
+        <v>742955.2135016473</v>
+      </c>
+      <c r="N2" t="n">
+        <v>742955.2135016471</v>
+      </c>
+      <c r="O2" t="n">
         <v>742955.213501647</v>
       </c>
-      <c r="I2" t="n">
-        <v>742955.213501647</v>
-      </c>
-      <c r="J2" t="n">
-        <v>742955.2135016471</v>
-      </c>
-      <c r="K2" t="n">
-        <v>742955.213501647</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>742955.2135016472</v>
-      </c>
-      <c r="M2" t="n">
-        <v>742955.2135016471</v>
-      </c>
-      <c r="N2" t="n">
-        <v>742955.2135016472</v>
-      </c>
-      <c r="O2" t="n">
-        <v>742955.2135016472</v>
-      </c>
-      <c r="P2" t="n">
-        <v>742955.2135016473</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512227</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
@@ -26472,40 +26472,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-49612.23415810757</v>
+        <v>-49612.23415810781</v>
       </c>
       <c r="C6" t="n">
+        <v>540355.645056437</v>
+      </c>
+      <c r="D6" t="n">
         <v>540355.6450564368</v>
       </c>
-      <c r="D6" t="n">
-        <v>540355.6450564369</v>
-      </c>
       <c r="E6" t="n">
-        <v>109787.5901948731</v>
+        <v>110664.7223286234</v>
       </c>
       <c r="F6" t="n">
-        <v>634947.6266717699</v>
+        <v>635824.7588055194</v>
       </c>
       <c r="G6" t="n">
-        <v>634947.6266717699</v>
+        <v>635824.7588055194</v>
       </c>
       <c r="H6" t="n">
-        <v>634947.6266717697</v>
+        <v>635824.7588055196</v>
       </c>
       <c r="I6" t="n">
-        <v>634947.6266717697</v>
+        <v>635824.7588055194</v>
       </c>
       <c r="J6" t="n">
-        <v>458524.4074791768</v>
+        <v>459401.539612926</v>
       </c>
       <c r="K6" t="n">
-        <v>634947.6266717697</v>
+        <v>635824.7588055193</v>
       </c>
       <c r="L6" t="n">
-        <v>634947.6266717699</v>
+        <v>635824.7588055197</v>
       </c>
       <c r="M6" t="n">
-        <v>500146.6114379325</v>
+        <v>501023.7435716824</v>
       </c>
       <c r="N6" t="n">
-        <v>634947.6266717699</v>
+        <v>635824.7588055193</v>
       </c>
       <c r="O6" t="n">
-        <v>634947.6266717699</v>
+        <v>635824.7588055192</v>
       </c>
       <c r="P6" t="n">
-        <v>634947.62667177</v>
+        <v>635824.7588055194</v>
       </c>
     </row>
   </sheetData>
@@ -26737,43 +26737,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>68.08019533676975</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>68.08019533676973</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>96.44405126592675</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>86.93835440428914</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,10 +27624,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>113.9539220428411</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,13 +27675,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>185.3981919814864</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>149.2278925609829</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>92.49591467042818</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>64.92471158361894</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>124.9017925817095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,19 +28022,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831825</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>3.806844538051894</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28149,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32405,10 +32405,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34783,19 +34783,19 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839191</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,10 +35263,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>429.2814066296118</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>117.4883924248555</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35734,19 +35734,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
         <v>59.82538970349858</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058701</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
